--- a/Task.xlsx
+++ b/Task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/775a58f3260b7d31/Fullstack/Buoi 9-Boostrap/2.Bai tap nop/BC37_Capstone_NguyenLeHoangHai_NguyenVietPhuQuy/Đề bài/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/775a58f3260b7d31/Fullstack/Buoi 9-Boostrap/2.Bai tap nop/BC37_Capstone_NguyenLeHoangHai_NguyenVietPhuQuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{FE7A2BC7-4486-4F21-A5A8-0C9FFB4DEDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA0A844-EA90-4CD8-B572-833AB49E6DDF}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{FE7A2BC7-4486-4F21-A5A8-0C9FFB4DEDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB5AE01-7251-46A5-A910-6543B56E6C6D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403EE276-A57A-4F5E-9B2F-3A2F395748BB}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -889,7 +889,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{A2E06986-7D16-4AE3-B7B1-32DBA92D63B7}"/>
-    <hyperlink ref="O1" r:id="rId2" xr:uid="{A2CDE9A0-1306-4DAA-B32D-9DCA62AC6827}"/>
+    <hyperlink ref="O1" r:id="rId2" xr:uid="{48B207B7-0379-4137-8430-1162C601F89F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/775a58f3260b7d31/Fullstack/Buoi 9-Boostrap/2.Bai tap nop/BC37_Capstone_NguyenLeHoangHai_NguyenVietPhuQuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{FE7A2BC7-4486-4F21-A5A8-0C9FFB4DEDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB5AE01-7251-46A5-A910-6543B56E6C6D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{FE7A2BC7-4486-4F21-A5A8-0C9FFB4DEDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F67F73-0B71-4668-9255-E27FDED3B791}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Quý</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=523NLByFvM8</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -697,6 +700,9 @@
       <c r="N3" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="O3" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -890,8 +896,9 @@
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{A2E06986-7D16-4AE3-B7B1-32DBA92D63B7}"/>
     <hyperlink ref="O1" r:id="rId2" xr:uid="{48B207B7-0379-4137-8430-1162C601F89F}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{96A9FE57-D637-4DF3-B857-CFCA3B38D9C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>